--- a/biology/Botanique/Jubula_(plante)/Jubula_(plante).xlsx
+++ b/biology/Botanique/Jubula_(plante)/Jubula_(plante).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jubula est un genre de bryophytes de la famille des Jubulaceae. 
 </t>
@@ -511,15 +523,17 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                  (9 août 2020)[2] et ITIS      (9 août 2020)[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                  (9 août 2020) et ITIS      (9 août 2020) :
 Jubula blepharophylla Grolle
 Jubula hattorii Udar &amp; V. Nath
 Jubula himalayensis S.C. Srivast. &amp; D. Sharma
 Jubula hutchinsiae (Hook.) Dumort.
 Jubula kwangsiensis C. Gao &amp; K.C. Chang
-Selon The Plant List            (9 août 2020)[4] :
+Selon The Plant List            (9 août 2020) :
 Jubula blepharophylla Grolle
 Jubula complanata (L.) Corda
 Jubula hattorii Udar &amp; V. Nath
@@ -528,7 +542,7 @@
 Jubula japonica Stephani
 Jubula kwangsiensis C. Gao &amp; G.C. Zhang
 Jubula pennsylvanica (Stephani) A. Evans
-Selon Tropicos                                           (9 août 2020)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (9 août 2020) (Attention liste brute contenant possiblement des synonymes) :
 Jubula blepharophylla Grolle
 Jubula bogotensis Steph.
 Jubula camboueana Steph.
